--- a/Clase_10/Pronostico_ARIMA.xlsx
+++ b/Clase_10/Pronostico_ARIMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminolivavazquez/Documents/Personal/Cursos_UNAM/SERIES_2022-I/Series-de-Tiempo-2021/Clase_10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2023-I/Series-de-Tiempo-2022/Clase_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A0CEE-7466-E440-80CE-36DBC962CA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0D0070-A2A3-704C-A0A4-DAA33CDD9D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17500" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033B569-E481-7947-93CD-4A9A959244F1}">
-  <dimension ref="A1:B284"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K261" sqref="K261"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A272" sqref="A272:A295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2430,7 +2430,7 @@
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>2685469</v>
+        <v>2685767</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -2438,7 +2438,7 @@
         <v>44228</v>
       </c>
       <c r="B255">
-        <v>2213797</v>
+        <v>2214034</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -2446,7 +2446,7 @@
         <v>44256</v>
       </c>
       <c r="B256">
-        <v>3162388</v>
+        <v>3162379</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>44287</v>
       </c>
       <c r="B257">
-        <v>3454084</v>
+        <v>3452944</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -2462,7 +2462,7 @@
         <v>44317</v>
       </c>
       <c r="B258">
-        <v>3785494</v>
+        <v>3784266</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -2470,7 +2470,7 @@
         <v>44348</v>
       </c>
       <c r="B259">
-        <v>3789268</v>
+        <v>3791459</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -2478,63 +2478,96 @@
         <v>44378</v>
       </c>
       <c r="B260">
-        <v>4353838</v>
+        <v>4352913</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44409</v>
       </c>
+      <c r="B261">
+        <v>3961404</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44440</v>
       </c>
+      <c r="B262">
+        <v>3577845</v>
+      </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44470</v>
       </c>
+      <c r="B263">
+        <v>4118307</v>
+      </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44501</v>
       </c>
+      <c r="B264">
+        <v>4313721</v>
+      </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44531</v>
       </c>
+      <c r="B265">
+        <v>4681213</v>
+      </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44562</v>
       </c>
+      <c r="B266">
+        <v>3767905</v>
+      </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44593</v>
       </c>
+      <c r="B267">
+        <v>3535885</v>
+      </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44621</v>
       </c>
+      <c r="B268">
+        <v>4438186</v>
+      </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44652</v>
       </c>
+      <c r="B269">
+        <v>4701502</v>
+      </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44682</v>
       </c>
+      <c r="B270">
+        <v>4424819</v>
+      </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44713</v>
       </c>
+      <c r="B271">
+        <v>4224212</v>
+      </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
@@ -2599,6 +2632,61 @@
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>45108</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>45444</v>
       </c>
     </row>
   </sheetData>
